--- a/columns.xlsx
+++ b/columns.xlsx
@@ -16,6 +16,686 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="224">
+  <si>
+    <t>PDF</t>
+  </si>
+  <si>
+    <t>INPUT</t>
+  </si>
+  <si>
+    <t>OCR</t>
+  </si>
+  <si>
+    <t>Matching</t>
+  </si>
+  <si>
+    <t>Integrate</t>
+  </si>
+  <si>
+    <t>OMS</t>
+  </si>
+  <si>
+    <t>LINE</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>VENDOR PN</t>
+  </si>
+  <si>
+    <t>UPC/GTIN</t>
+  </si>
+  <si>
+    <t>DESCRIPTIONLINE ITEM COMMENTS</t>
+  </si>
+  <si>
+    <t>MARKS AND
+NUMBERS</t>
+  </si>
+  <si>
+    <t>UNIT COST/RETAIL
+PRICE</t>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t>UOM</t>
+  </si>
+  <si>
+    <t>ITEMTOTAL</t>
+  </si>
+  <si>
+    <t>PO Date:</t>
+  </si>
+  <si>
+    <t>Requested Delivery Date:</t>
+  </si>
+  <si>
+    <t>Requested Ship Date:</t>
+  </si>
+  <si>
+    <t>Cancel Date:</t>
+  </si>
+  <si>
+    <t>Delivery Window:</t>
+  </si>
+  <si>
+    <t>Shipping Window:</t>
+  </si>
+  <si>
+    <t>Vendor #:</t>
+  </si>
+  <si>
+    <t>Department #:</t>
+  </si>
+  <si>
+    <t>Freight Terms:</t>
+  </si>
+  <si>
+    <t>Preferred Carrier:</t>
+  </si>
+  <si>
+    <t>Terms Type</t>
+  </si>
+  <si>
+    <t>Terms Basis:</t>
+  </si>
+  <si>
+    <t>Terms Disc
+%:</t>
+  </si>
+  <si>
+    <t>Disc. Due Date:</t>
+  </si>
+  <si>
+    <t>Disc. Days:</t>
+  </si>
+  <si>
+    <t>Net Due Date:</t>
+  </si>
+  <si>
+    <t>Net Days:</t>
+  </si>
+  <si>
+    <t>Description:</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>SERVICE TYPE</t>
+  </si>
+  <si>
+    <t>PERCENT</t>
+  </si>
+  <si>
+    <t>RATE</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+  </si>
+  <si>
+    <t>Total Qty:</t>
+  </si>
+  <si>
+    <t>Weight:</t>
+  </si>
+  <si>
+    <t>Volume:</t>
+  </si>
+  <si>
+    <t>Purchase Order Total:</t>
+  </si>
+  <si>
+    <t>RecordType*</t>
+  </si>
+  <si>
+    <t>CustomerName*</t>
+  </si>
+  <si>
+    <t>InvoiceNumber*</t>
+  </si>
+  <si>
+    <t>Reference/Comment/Note</t>
+  </si>
+  <si>
+    <t>Product*</t>
+  </si>
+  <si>
+    <t>Quantity*</t>
+  </si>
+  <si>
+    <t>Price/Amount*</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>Total*</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>TaxRule*</t>
+  </si>
+  <si>
+    <t>DropShip</t>
+  </si>
+  <si>
+    <t>CurrencyConversionRate</t>
+  </si>
+  <si>
+    <t>DatePaid*</t>
+  </si>
+  <si>
+    <t>CustomerContact</t>
+  </si>
+  <si>
+    <t>CustomerPhone</t>
+  </si>
+  <si>
+    <t>CustomerEmail</t>
+  </si>
+  <si>
+    <t>SalesRepresentative*</t>
+  </si>
+  <si>
+    <t>ShipmentRequiredByDate</t>
+  </si>
+  <si>
+    <t>YourBaseCurrency*</t>
+  </si>
+  <si>
+    <t>CustomerCurrency*</t>
+  </si>
+  <si>
+    <t>Terms</t>
+  </si>
+  <si>
+    <t>PriceTier</t>
+  </si>
+  <si>
+    <t>StockLocation</t>
+  </si>
+  <si>
+    <t>MemoOnInvoice</t>
+  </si>
+  <si>
+    <t>InvoiceDate*/ExpireDate</t>
+  </si>
+  <si>
+    <t>InvoiceDueDate</t>
+  </si>
+  <si>
+    <t>TaxInclusive*</t>
+  </si>
+  <si>
+    <t>ShippingAddressLine1*</t>
+  </si>
+  <si>
+    <t>ShippingAddressLine2</t>
+  </si>
+  <si>
+    <t>ShipToOther*</t>
+  </si>
+  <si>
+    <t>ShippingCity*</t>
+  </si>
+  <si>
+    <t>ShippingProvince*</t>
+  </si>
+  <si>
+    <t>ShippingPostcode*</t>
+  </si>
+  <si>
+    <t>ShippingCountry*</t>
+  </si>
+  <si>
+    <t>ShipToCompany*</t>
+  </si>
+  <si>
+    <t>BillingAddressLine1*</t>
+  </si>
+  <si>
+    <t>BillingAddressLine2</t>
+  </si>
+  <si>
+    <t>BillingCity*</t>
+  </si>
+  <si>
+    <t>BillingProvince*</t>
+  </si>
+  <si>
+    <t>BillingPostcode*</t>
+  </si>
+  <si>
+    <t>BillingCountry*</t>
+  </si>
+  <si>
+    <t>CreditNoteNumber</t>
+  </si>
+  <si>
+    <t>CreditNoteDate</t>
+  </si>
+  <si>
+    <t>CustomField1</t>
+  </si>
+  <si>
+    <t>CustomField2</t>
+  </si>
+  <si>
+    <t>CustomField3</t>
+  </si>
+  <si>
+    <t>CustomField4</t>
+  </si>
+  <si>
+    <t>CustomField5</t>
+  </si>
+  <si>
+    <t>CustomField6</t>
+  </si>
+  <si>
+    <t>CustomField7</t>
+  </si>
+  <si>
+    <t>CustomField8</t>
+  </si>
+  <si>
+    <t>CustomField9</t>
+  </si>
+  <si>
+    <t>CustomField10</t>
+  </si>
+  <si>
+    <t>CarrierCode</t>
+  </si>
+  <si>
+    <t>CarrierServiceCode</t>
+  </si>
+  <si>
+    <t>ShipToContact</t>
+  </si>
+  <si>
+    <t>ShippingNotes</t>
+  </si>
+  <si>
+    <t>PO Line #</t>
+  </si>
+  <si>
+    <t>Vendor Style</t>
+  </si>
+  <si>
+    <t>UPC/EAN</t>
+  </si>
+  <si>
+    <t>Product/Item Description</t>
+  </si>
+  <si>
+    <t>Dept #</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
+  </si>
+  <si>
+    <t>Qty Ordered</t>
+  </si>
+  <si>
+    <t>Unit of Measure</t>
+  </si>
+  <si>
+    <t>PO Date</t>
+  </si>
+  <si>
+    <t>Requested Delivery Date</t>
+  </si>
+  <si>
+    <t>Ship Dates</t>
+  </si>
+  <si>
+    <t>Cancel Date</t>
+  </si>
+  <si>
+    <t>Vendor #</t>
+  </si>
+  <si>
+    <t>Frt Terms</t>
+  </si>
+  <si>
+    <t>Payment Terms Disc Due Date</t>
+  </si>
+  <si>
+    <t>Payment Terms Disc Days Due</t>
+  </si>
+  <si>
+    <t>Payment Terms Net Due Date</t>
+  </si>
+  <si>
+    <t>Payment Terms Net Days</t>
+  </si>
+  <si>
+    <t>Buyers Catalog or Stock Keeping #</t>
+  </si>
+  <si>
+    <t>PO Total Amount</t>
+  </si>
+  <si>
+    <t>PO Number</t>
+  </si>
+  <si>
+    <t>Release Number</t>
+  </si>
+  <si>
+    <t>Retailers PO</t>
+  </si>
+  <si>
+    <t>Delivery Dates</t>
+  </si>
+  <si>
+    <t>Carrier</t>
+  </si>
+  <si>
+    <t>Carrier Details</t>
+  </si>
+  <si>
+    <t>Ship To Location</t>
+  </si>
+  <si>
+    <t>Retail Price</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Pack Size</t>
+  </si>
+  <si>
+    <t>Pack Size UOM</t>
+  </si>
+  <si>
+    <t>Number of Inner Packs</t>
+  </si>
+  <si>
+    <t>Number of Pcs per Inner Pack</t>
+  </si>
+  <si>
+    <t>Store #</t>
+  </si>
+  <si>
+    <t>Qty per Store #</t>
+  </si>
+  <si>
+    <t>Record Type</t>
+  </si>
+  <si>
+    <t>PO purpose</t>
+  </si>
+  <si>
+    <t>PO Type</t>
+  </si>
+  <si>
+    <t>Contract Number</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Ship Status</t>
+  </si>
+  <si>
+    <t>Letter of Credit</t>
+  </si>
+  <si>
+    <t>Division #</t>
+  </si>
+  <si>
+    <t>Cust Acct #</t>
+  </si>
+  <si>
+    <t>Customer Order #</t>
+  </si>
+  <si>
+    <t>Promo #</t>
+  </si>
+  <si>
+    <t>Ticket Description</t>
+  </si>
+  <si>
+    <t>Other Info / #s</t>
+  </si>
+  <si>
+    <t>Carrier Service Level</t>
+  </si>
+  <si>
+    <t>Payment Terms %</t>
+  </si>
+  <si>
+    <t>Payment Terms Disc Amt</t>
+  </si>
+  <si>
+    <t>Payment Terms Desc</t>
+  </si>
+  <si>
+    <t>Contact Phone</t>
+  </si>
+  <si>
+    <t>Contact Fax</t>
+  </si>
+  <si>
+    <t>Contact Email</t>
+  </si>
+  <si>
+    <t>Allow/Charge Type</t>
+  </si>
+  <si>
+    <t>Allow/Charge Service</t>
+  </si>
+  <si>
+    <t>Allow/Charge Amt</t>
+  </si>
+  <si>
+    <t>Allow/Charge %</t>
+  </si>
+  <si>
+    <t>Allow/Charge Rate</t>
+  </si>
+  <si>
+    <t>Allow/Charge Qty</t>
+  </si>
+  <si>
+    <t>Allow/Charge Desc</t>
+  </si>
+  <si>
+    <t>Ship To Name</t>
+  </si>
+  <si>
+    <t>Ship To Address 1</t>
+  </si>
+  <si>
+    <t>Ship To Address 2</t>
+  </si>
+  <si>
+    <t>Ship To City</t>
+  </si>
+  <si>
+    <t>Ship To State</t>
+  </si>
+  <si>
+    <t>Ship to Zip</t>
+  </si>
+  <si>
+    <t>Ship To Country</t>
+  </si>
+  <si>
+    <t>Ship To Contact</t>
+  </si>
+  <si>
+    <t>Bill To Name</t>
+  </si>
+  <si>
+    <t>Bill To Address 1</t>
+  </si>
+  <si>
+    <t>Bill To Address 2</t>
+  </si>
+  <si>
+    <t>Bill To City</t>
+  </si>
+  <si>
+    <t>Bill To State</t>
+  </si>
+  <si>
+    <t>Bill To Zip</t>
+  </si>
+  <si>
+    <t>Bill To Country</t>
+  </si>
+  <si>
+    <t>Bill To Contact</t>
+  </si>
+  <si>
+    <t>Buying Party Name</t>
+  </si>
+  <si>
+    <t>Buying Party Location</t>
+  </si>
+  <si>
+    <t>Buying Party Address 1</t>
+  </si>
+  <si>
+    <t>Buying Party Address 2</t>
+  </si>
+  <si>
+    <t>Buying Party City</t>
+  </si>
+  <si>
+    <t>Buying Party State</t>
+  </si>
+  <si>
+    <t>Buying Party Zip</t>
+  </si>
+  <si>
+    <t>Buying Party Country</t>
+  </si>
+  <si>
+    <t>Buying Party Contact</t>
+  </si>
+  <si>
+    <t>Ultimate Location</t>
+  </si>
+  <si>
+    <t>Notes/Comments</t>
+  </si>
+  <si>
+    <t>Ship To Additional Name</t>
+  </si>
+  <si>
+    <t>Ship To Additional Name 2</t>
+  </si>
+  <si>
+    <t>Bill To Additional Name</t>
+  </si>
+  <si>
+    <t>Bill To Additional Name 2</t>
+  </si>
+  <si>
+    <t>Buyer Additional Name</t>
+  </si>
+  <si>
+    <t>Buyer Additional Name 2</t>
+  </si>
+  <si>
+    <t>GTIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PO Total Weight </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PO Total UOM </t>
+  </si>
+  <si>
+    <t>Shipping account number</t>
+  </si>
+  <si>
+    <t>Mark for Name</t>
+  </si>
+  <si>
+    <t>Mark for Address 1</t>
+  </si>
+  <si>
+    <t>Mark for Address 2</t>
+  </si>
+  <si>
+    <t>Mark for City</t>
+  </si>
+  <si>
+    <t>Mark for State</t>
+  </si>
+  <si>
+    <t>Mark for Postal</t>
+  </si>
+  <si>
+    <t>Mark for Country</t>
+  </si>
+  <si>
+    <t>Shipping Container Code</t>
+  </si>
+  <si>
+    <t>National Drug Code</t>
+  </si>
+  <si>
+    <t>Expiration Date</t>
+  </si>
+  <si>
+    <t>Dist</t>
+  </si>
+  <si>
+    <t>Scheduled Quantity</t>
+  </si>
+  <si>
+    <t>Scheduled Qty UOM</t>
+  </si>
+  <si>
+    <t>Required By Date</t>
+  </si>
+  <si>
+    <t>Must Arrive By</t>
+  </si>
+  <si>
+    <t>Entire Shipment</t>
+  </si>
+  <si>
+    <t>Agreement Number</t>
+  </si>
+  <si>
+    <t>Additional Vendor Part #</t>
+  </si>
+  <si>
+    <t>Buyer Part Number</t>
+  </si>
+  <si>
+    <t>Carrier Details Special Handling</t>
+  </si>
+  <si>
+    <t>Restrictions/Conditions</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -49,8 +729,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,12 +1014,821 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:DS10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="17" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="14" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="18" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="67" max="68" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="15" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="75" max="76" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="14" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="18" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="16" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="22" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="104" max="105" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="16" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="19" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="14" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="19" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="22.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:123" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:123" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" t="s">
+        <v>23</v>
+      </c>
+      <c r="U4" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:123" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" t="s">
+        <v>109</v>
+      </c>
+      <c r="J6" t="s">
+        <v>110</v>
+      </c>
+      <c r="K6" t="s">
+        <v>111</v>
+      </c>
+      <c r="L6" t="s">
+        <v>112</v>
+      </c>
+      <c r="M6" t="s">
+        <v>113</v>
+      </c>
+      <c r="N6" t="s">
+        <v>114</v>
+      </c>
+      <c r="O6" t="s">
+        <v>115</v>
+      </c>
+      <c r="P6" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>117</v>
+      </c>
+      <c r="R6" t="s">
+        <v>118</v>
+      </c>
+      <c r="S6" t="s">
+        <v>119</v>
+      </c>
+      <c r="T6" t="s">
+        <v>120</v>
+      </c>
+      <c r="U6" t="s">
+        <v>121</v>
+      </c>
+      <c r="V6" t="s">
+        <v>122</v>
+      </c>
+      <c r="W6" t="s">
+        <v>123</v>
+      </c>
+      <c r="X6" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>146</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>148</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>151</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>152</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>153</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>154</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>155</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>156</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>158</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>159</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>160</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>161</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>162</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>163</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>164</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>165</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>166</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>167</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>168</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>169</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>170</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>171</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>172</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>173</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>174</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>175</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>176</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>177</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>178</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>179</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>180</v>
+      </c>
+      <c r="CC6" t="s">
+        <v>181</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>182</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>183</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>184</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>185</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>186</v>
+      </c>
+      <c r="CI6" t="s">
+        <v>187</v>
+      </c>
+      <c r="CJ6" t="s">
+        <v>188</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>189</v>
+      </c>
+      <c r="CL6" t="s">
+        <v>190</v>
+      </c>
+      <c r="CM6" t="s">
+        <v>191</v>
+      </c>
+      <c r="CN6" t="s">
+        <v>192</v>
+      </c>
+      <c r="CO6" t="s">
+        <v>193</v>
+      </c>
+      <c r="CP6" t="s">
+        <v>194</v>
+      </c>
+      <c r="CQ6" t="s">
+        <v>195</v>
+      </c>
+      <c r="CR6" t="s">
+        <v>196</v>
+      </c>
+      <c r="CS6" t="s">
+        <v>197</v>
+      </c>
+      <c r="CT6" t="s">
+        <v>198</v>
+      </c>
+      <c r="CU6" t="s">
+        <v>199</v>
+      </c>
+      <c r="CV6" t="s">
+        <v>200</v>
+      </c>
+      <c r="CW6" t="s">
+        <v>201</v>
+      </c>
+      <c r="CX6" t="s">
+        <v>202</v>
+      </c>
+      <c r="CY6" t="s">
+        <v>203</v>
+      </c>
+      <c r="CZ6" t="s">
+        <v>204</v>
+      </c>
+      <c r="DA6" t="s">
+        <v>205</v>
+      </c>
+      <c r="DB6" t="s">
+        <v>206</v>
+      </c>
+      <c r="DC6" t="s">
+        <v>207</v>
+      </c>
+      <c r="DD6" t="s">
+        <v>208</v>
+      </c>
+      <c r="DE6" t="s">
+        <v>209</v>
+      </c>
+      <c r="DF6" t="s">
+        <v>210</v>
+      </c>
+      <c r="DG6" t="s">
+        <v>211</v>
+      </c>
+      <c r="DH6" t="s">
+        <v>212</v>
+      </c>
+      <c r="DI6" t="s">
+        <v>213</v>
+      </c>
+      <c r="DJ6" t="s">
+        <v>214</v>
+      </c>
+      <c r="DK6" t="s">
+        <v>215</v>
+      </c>
+      <c r="DL6" t="s">
+        <v>216</v>
+      </c>
+      <c r="DM6" t="s">
+        <v>217</v>
+      </c>
+      <c r="DN6" t="s">
+        <v>218</v>
+      </c>
+      <c r="DO6" t="s">
+        <v>219</v>
+      </c>
+      <c r="DP6" t="s">
+        <v>220</v>
+      </c>
+      <c r="DQ6" t="s">
+        <v>221</v>
+      </c>
+      <c r="DR6" t="s">
+        <v>222</v>
+      </c>
+      <c r="DS6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:123" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>58</v>
+      </c>
+      <c r="R8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S8" t="s">
+        <v>60</v>
+      </c>
+      <c r="T8" t="s">
+        <v>61</v>
+      </c>
+      <c r="U8" t="s">
+        <v>62</v>
+      </c>
+      <c r="V8" t="s">
+        <v>63</v>
+      </c>
+      <c r="W8" t="s">
+        <v>64</v>
+      </c>
+      <c r="X8" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>94</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>95</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>96</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>97</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>98</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>100</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:123" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/columns.xlsx
+++ b/columns.xlsx
@@ -7,7 +7,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="OMScustomer_TO_SalesImport" sheetId="2" r:id="rId2"/>
+    <sheet name="SalesImport_TO_OMScustomer" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="288">
   <si>
     <t>PDF</t>
   </si>
@@ -31,12 +33,6 @@
   </si>
   <si>
     <t>Matching</t>
-  </si>
-  <si>
-    <t>Integrate</t>
-  </si>
-  <si>
-    <t>OMS</t>
   </si>
   <si>
     <t>LINE</t>
@@ -694,13 +690,211 @@
   </si>
   <si>
     <t>Restrictions/Conditions</t>
+  </si>
+  <si>
+    <t>OMS_Customers</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>PaymentTerm</t>
+  </si>
+  <si>
+    <t>TaxRule</t>
+  </si>
+  <si>
+    <t>AccountReceivable</t>
+  </si>
+  <si>
+    <t>SaleAccount</t>
+  </si>
+  <si>
+    <t>CreditLimit</t>
+  </si>
+  <si>
+    <t>SalesRepresentative</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>TaxNumber</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>AttributeSet</t>
+  </si>
+  <si>
+    <t>AdditionalAttribute1</t>
+  </si>
+  <si>
+    <t>AdditionalAttribute2</t>
+  </si>
+  <si>
+    <t>AdditionalAttribute3</t>
+  </si>
+  <si>
+    <t>AdditionalAttribute4</t>
+  </si>
+  <si>
+    <t>AdditionalAttribute5</t>
+  </si>
+  <si>
+    <t>AdditionalAttribute6</t>
+  </si>
+  <si>
+    <t>AdditionalAttribute7</t>
+  </si>
+  <si>
+    <t>AdditionalAttribute8</t>
+  </si>
+  <si>
+    <t>AdditionalAttribute9</t>
+  </si>
+  <si>
+    <t>AdditionalAttribute10</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>ContactName</t>
+  </si>
+  <si>
+    <t>JobTitle</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>MobilePhone</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>ContactComment</t>
+  </si>
+  <si>
+    <t>ContactDefault</t>
+  </si>
+  <si>
+    <t>ContactIncludeInEmail</t>
+  </si>
+  <si>
+    <t>MarketingConsent</t>
+  </si>
+  <si>
+    <t>IsAccountingDimensionEnabled</t>
+  </si>
+  <si>
+    <t>DimensionAttribute1</t>
+  </si>
+  <si>
+    <t>DimensionAttribute2</t>
+  </si>
+  <si>
+    <t>DimensionAttribute3</t>
+  </si>
+  <si>
+    <t>DimensionAttribute4</t>
+  </si>
+  <si>
+    <t>DimensionAttribute5</t>
+  </si>
+  <si>
+    <t>DimensionAttribute6</t>
+  </si>
+  <si>
+    <t>DimensionAttribute7</t>
+  </si>
+  <si>
+    <t>DimensionAttribute8</t>
+  </si>
+  <si>
+    <t>DimensionAttribute9</t>
+  </si>
+  <si>
+    <t>DimensionAttribute10</t>
+  </si>
+  <si>
+    <t>Integrate_OMS_customer</t>
+  </si>
+  <si>
+    <t>OMS_customer</t>
+  </si>
+  <si>
+    <t>Order #</t>
+  </si>
+  <si>
+    <t>Release #</t>
+  </si>
+  <si>
+    <t>Contract #(Purchasing Contact)</t>
+  </si>
+  <si>
+    <t>Contract #(E-mail)</t>
+  </si>
+  <si>
+    <t>Purchasing Contact(Buyer Name or Department)</t>
+  </si>
+  <si>
+    <t>Purchasing Contact(E-mail)</t>
+  </si>
+  <si>
+    <t>Purchasing(Receiving Contact)</t>
+  </si>
+  <si>
+    <t>Third Party Reference #</t>
+  </si>
+  <si>
+    <t>Ship To</t>
+  </si>
+  <si>
+    <t>Address(Ship To)</t>
+  </si>
+  <si>
+    <t>Bill To/Ordered By</t>
+  </si>
+  <si>
+    <t>Location ID(Bill To)</t>
+  </si>
+  <si>
+    <t>Location ID(Ship To)</t>
+  </si>
+  <si>
+    <t>Address(Bill To)</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Location ID(Vendor)</t>
+  </si>
+  <si>
+    <t>Factory</t>
+  </si>
+  <si>
+    <t>Notes/Comments/Special Instructions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -708,13 +902,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -729,11 +961,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1014,14 +1256,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:DS10"/>
+  <dimension ref="A2:DS13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -1064,23 +1307,23 @@
     <col min="43" max="43" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="20" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="22" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="14" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="18" bestFit="1" customWidth="1"/>
@@ -1140,695 +1383,1134 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:123" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:123" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="3" spans="1:123" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+    </row>
+    <row r="4" spans="1:123" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>18</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
         <v>21</v>
       </c>
-      <c r="S4" t="s">
+      <c r="U4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
         <v>23</v>
       </c>
-      <c r="U4" t="s">
+      <c r="W4" t="s">
         <v>24</v>
       </c>
-      <c r="V4" t="s">
+      <c r="X4" t="s">
         <v>25</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Y4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Z4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="AA4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AB4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AC4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AD4" t="s">
         <v>31</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AE4" t="s">
         <v>32</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AF4" t="s">
         <v>33</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AG4" t="s">
         <v>34</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AH4" t="s">
         <v>35</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AI4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK4" t="s">
         <v>36</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AL4" t="s">
         <v>37</v>
       </c>
-      <c r="AI4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK4" t="s">
+      <c r="AM4" t="s">
         <v>38</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AN4" t="s">
         <v>39</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AO4" t="s">
         <v>40</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AP4" t="s">
         <v>41</v>
       </c>
-      <c r="AO4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>43</v>
-      </c>
+      <c r="AQ4" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="AR4" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="AS4" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AT4" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="AU4" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="AV4" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="AW4" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="AX4" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="AY4" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AZ4" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="BA4" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="BB4" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="BC4" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="BD4" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="BE4" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="BF4" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="BG4" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="BH4" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="BI4" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="BJ4" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:123" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
     </row>
     <row r="6" spans="1:123" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" t="s">
         <v>103</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>104</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>105</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>108</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>109</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>110</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="L6" t="s">
+      <c r="N6" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="M6" t="s">
+      <c r="O6" t="s">
         <v>113</v>
       </c>
-      <c r="N6" t="s">
+      <c r="P6" t="s">
         <v>114</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>115</v>
       </c>
-      <c r="P6" t="s">
+      <c r="R6" t="s">
         <v>116</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="S6" t="s">
         <v>117</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" t="s">
         <v>118</v>
       </c>
-      <c r="S6" t="s">
+      <c r="U6" t="s">
         <v>119</v>
       </c>
-      <c r="T6" t="s">
+      <c r="V6" t="s">
         <v>120</v>
       </c>
-      <c r="U6" t="s">
+      <c r="W6" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="V6" t="s">
+      <c r="X6" t="s">
         <v>122</v>
       </c>
-      <c r="W6" t="s">
+      <c r="Y6" t="s">
         <v>123</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Z6" t="s">
         <v>124</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="AA6" t="s">
         <v>125</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AB6" t="s">
         <v>126</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AC6" t="s">
         <v>127</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AD6" t="s">
         <v>128</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AE6" t="s">
         <v>129</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AF6" t="s">
         <v>130</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AG6" t="s">
         <v>131</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AH6" t="s">
         <v>132</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AI6" t="s">
         <v>133</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AJ6" t="s">
         <v>134</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AK6" t="s">
         <v>135</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AL6" t="s">
         <v>136</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AM6" t="s">
         <v>137</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AN6" t="s">
         <v>138</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="AO6" t="s">
         <v>139</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AP6" t="s">
         <v>140</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="AQ6" t="s">
         <v>141</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AR6" t="s">
         <v>142</v>
       </c>
-      <c r="AQ6" t="s">
+      <c r="AS6" t="s">
         <v>143</v>
       </c>
-      <c r="AR6" t="s">
+      <c r="AT6" t="s">
         <v>144</v>
       </c>
-      <c r="AS6" t="s">
+      <c r="AU6" t="s">
         <v>145</v>
       </c>
-      <c r="AT6" t="s">
+      <c r="AV6" t="s">
         <v>146</v>
       </c>
-      <c r="AU6" t="s">
+      <c r="AW6" t="s">
         <v>147</v>
       </c>
-      <c r="AV6" t="s">
+      <c r="AX6" t="s">
         <v>148</v>
       </c>
-      <c r="AW6" t="s">
+      <c r="AY6" t="s">
         <v>149</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="AZ6" t="s">
         <v>150</v>
       </c>
-      <c r="AY6" t="s">
+      <c r="BA6" t="s">
         <v>151</v>
       </c>
-      <c r="AZ6" t="s">
+      <c r="BB6" t="s">
         <v>152</v>
       </c>
-      <c r="BA6" t="s">
+      <c r="BC6" t="s">
         <v>153</v>
       </c>
-      <c r="BB6" t="s">
+      <c r="BD6" t="s">
         <v>154</v>
       </c>
-      <c r="BC6" t="s">
+      <c r="BE6" t="s">
         <v>155</v>
       </c>
-      <c r="BD6" t="s">
+      <c r="BF6" t="s">
         <v>156</v>
       </c>
-      <c r="BE6" t="s">
+      <c r="BG6" t="s">
         <v>157</v>
       </c>
-      <c r="BF6" t="s">
+      <c r="BH6" t="s">
         <v>158</v>
       </c>
-      <c r="BG6" t="s">
+      <c r="BI6" t="s">
         <v>159</v>
       </c>
-      <c r="BH6" t="s">
+      <c r="BJ6" t="s">
         <v>160</v>
       </c>
-      <c r="BI6" t="s">
+      <c r="BK6" t="s">
         <v>161</v>
       </c>
-      <c r="BJ6" t="s">
+      <c r="BL6" t="s">
         <v>162</v>
       </c>
-      <c r="BK6" t="s">
+      <c r="BM6" t="s">
         <v>163</v>
       </c>
-      <c r="BL6" t="s">
+      <c r="BN6" t="s">
         <v>164</v>
       </c>
-      <c r="BM6" t="s">
+      <c r="BO6" t="s">
         <v>165</v>
       </c>
-      <c r="BN6" t="s">
+      <c r="BP6" t="s">
         <v>166</v>
       </c>
-      <c r="BO6" t="s">
+      <c r="BQ6" t="s">
         <v>167</v>
       </c>
-      <c r="BP6" t="s">
+      <c r="BR6" t="s">
         <v>168</v>
       </c>
-      <c r="BQ6" t="s">
+      <c r="BS6" t="s">
         <v>169</v>
       </c>
-      <c r="BR6" t="s">
+      <c r="BT6" t="s">
         <v>170</v>
       </c>
-      <c r="BS6" t="s">
+      <c r="BU6" t="s">
         <v>171</v>
       </c>
-      <c r="BT6" t="s">
+      <c r="BV6" t="s">
         <v>172</v>
       </c>
-      <c r="BU6" t="s">
+      <c r="BW6" t="s">
         <v>173</v>
       </c>
-      <c r="BV6" t="s">
+      <c r="BX6" t="s">
         <v>174</v>
       </c>
-      <c r="BW6" t="s">
+      <c r="BY6" t="s">
         <v>175</v>
       </c>
-      <c r="BX6" t="s">
+      <c r="BZ6" t="s">
         <v>176</v>
       </c>
-      <c r="BY6" t="s">
+      <c r="CA6" t="s">
         <v>177</v>
       </c>
-      <c r="BZ6" t="s">
+      <c r="CB6" t="s">
         <v>178</v>
       </c>
-      <c r="CA6" t="s">
+      <c r="CC6" t="s">
         <v>179</v>
       </c>
-      <c r="CB6" t="s">
+      <c r="CD6" t="s">
         <v>180</v>
       </c>
-      <c r="CC6" t="s">
+      <c r="CE6" t="s">
         <v>181</v>
       </c>
-      <c r="CD6" t="s">
+      <c r="CF6" t="s">
         <v>182</v>
       </c>
-      <c r="CE6" t="s">
+      <c r="CG6" t="s">
         <v>183</v>
       </c>
-      <c r="CF6" t="s">
+      <c r="CH6" t="s">
         <v>184</v>
       </c>
-      <c r="CG6" t="s">
+      <c r="CI6" t="s">
         <v>185</v>
       </c>
-      <c r="CH6" t="s">
+      <c r="CJ6" t="s">
         <v>186</v>
       </c>
-      <c r="CI6" t="s">
+      <c r="CK6" t="s">
         <v>187</v>
       </c>
-      <c r="CJ6" t="s">
+      <c r="CL6" t="s">
         <v>188</v>
       </c>
-      <c r="CK6" t="s">
+      <c r="CM6" t="s">
         <v>189</v>
       </c>
-      <c r="CL6" t="s">
+      <c r="CN6" t="s">
         <v>190</v>
       </c>
-      <c r="CM6" t="s">
+      <c r="CO6" t="s">
         <v>191</v>
       </c>
-      <c r="CN6" t="s">
+      <c r="CP6" t="s">
         <v>192</v>
       </c>
-      <c r="CO6" t="s">
+      <c r="CQ6" t="s">
         <v>193</v>
       </c>
-      <c r="CP6" t="s">
+      <c r="CR6" t="s">
         <v>194</v>
       </c>
-      <c r="CQ6" t="s">
+      <c r="CS6" t="s">
         <v>195</v>
       </c>
-      <c r="CR6" t="s">
+      <c r="CT6" t="s">
         <v>196</v>
       </c>
-      <c r="CS6" t="s">
+      <c r="CU6" t="s">
         <v>197</v>
       </c>
-      <c r="CT6" t="s">
+      <c r="CV6" t="s">
         <v>198</v>
       </c>
-      <c r="CU6" t="s">
+      <c r="CW6" t="s">
         <v>199</v>
       </c>
-      <c r="CV6" t="s">
+      <c r="CX6" t="s">
         <v>200</v>
       </c>
-      <c r="CW6" t="s">
+      <c r="CY6" t="s">
         <v>201</v>
       </c>
-      <c r="CX6" t="s">
+      <c r="CZ6" t="s">
         <v>202</v>
       </c>
-      <c r="CY6" t="s">
+      <c r="DA6" t="s">
         <v>203</v>
       </c>
-      <c r="CZ6" t="s">
+      <c r="DB6" t="s">
         <v>204</v>
       </c>
-      <c r="DA6" t="s">
+      <c r="DC6" t="s">
         <v>205</v>
       </c>
-      <c r="DB6" t="s">
+      <c r="DD6" t="s">
         <v>206</v>
       </c>
-      <c r="DC6" t="s">
+      <c r="DE6" t="s">
         <v>207</v>
       </c>
-      <c r="DD6" t="s">
+      <c r="DF6" t="s">
         <v>208</v>
       </c>
-      <c r="DE6" t="s">
+      <c r="DG6" t="s">
         <v>209</v>
       </c>
-      <c r="DF6" t="s">
+      <c r="DH6" t="s">
         <v>210</v>
       </c>
-      <c r="DG6" t="s">
+      <c r="DI6" t="s">
         <v>211</v>
       </c>
-      <c r="DH6" t="s">
+      <c r="DJ6" t="s">
         <v>212</v>
       </c>
-      <c r="DI6" t="s">
+      <c r="DK6" t="s">
         <v>213</v>
       </c>
-      <c r="DJ6" t="s">
+      <c r="DL6" t="s">
         <v>214</v>
       </c>
-      <c r="DK6" t="s">
+      <c r="DM6" t="s">
         <v>215</v>
       </c>
-      <c r="DL6" t="s">
+      <c r="DN6" t="s">
         <v>216</v>
       </c>
-      <c r="DM6" t="s">
+      <c r="DO6" t="s">
         <v>217</v>
       </c>
-      <c r="DN6" t="s">
+      <c r="DP6" t="s">
         <v>218</v>
       </c>
-      <c r="DO6" t="s">
+      <c r="DQ6" t="s">
         <v>219</v>
       </c>
-      <c r="DP6" t="s">
+      <c r="DR6" t="s">
         <v>220</v>
       </c>
-      <c r="DQ6" t="s">
+      <c r="DS6" t="s">
         <v>221</v>
       </c>
-      <c r="DR6" t="s">
-        <v>222</v>
-      </c>
-      <c r="DS6" t="s">
-        <v>223</v>
-      </c>
+    </row>
+    <row r="7" spans="1:123" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
     </row>
     <row r="8" spans="1:123" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
+      <c r="A8" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
         <v>44</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>45</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>46</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>47</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>48</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>50</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>51</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="L8" t="s">
+      <c r="N8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M8" t="s">
+      <c r="O8" t="s">
         <v>54</v>
       </c>
-      <c r="N8" t="s">
+      <c r="P8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>56</v>
       </c>
-      <c r="P8" t="s">
+      <c r="R8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="S8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="R8" t="s">
+      <c r="T8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="S8" t="s">
+      <c r="U8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="T8" t="s">
+      <c r="V8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="U8" t="s">
+      <c r="W8" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="V8" t="s">
+      <c r="X8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="W8" t="s">
+      <c r="Y8" t="s">
         <v>64</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Z8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="AA8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AB8" t="s">
         <v>67</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AC8" t="s">
         <v>68</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AD8" t="s">
         <v>69</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AE8" t="s">
         <v>70</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AF8" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AG8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AH8" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AI8" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AJ8" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AK8" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="AL8" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AM8" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AN8" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="AO8" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="AP8" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AO8" t="s">
+      <c r="AQ8" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AP8" t="s">
+      <c r="AR8" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AQ8" t="s">
+      <c r="AS8" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AR8" t="s">
+      <c r="AT8" t="s">
         <v>85</v>
       </c>
-      <c r="AS8" t="s">
+      <c r="AU8" t="s">
         <v>86</v>
       </c>
-      <c r="AT8" t="s">
+      <c r="AV8" t="s">
         <v>87</v>
       </c>
-      <c r="AU8" t="s">
+      <c r="AW8" t="s">
         <v>88</v>
       </c>
-      <c r="AV8" t="s">
+      <c r="AX8" t="s">
         <v>89</v>
       </c>
-      <c r="AW8" t="s">
+      <c r="AY8" t="s">
         <v>90</v>
       </c>
-      <c r="AX8" t="s">
+      <c r="AZ8" t="s">
         <v>91</v>
       </c>
-      <c r="AY8" t="s">
+      <c r="BA8" t="s">
         <v>92</v>
       </c>
-      <c r="AZ8" t="s">
+      <c r="BB8" t="s">
         <v>93</v>
       </c>
-      <c r="BA8" t="s">
+      <c r="BC8" t="s">
         <v>94</v>
       </c>
-      <c r="BB8" t="s">
+      <c r="BD8" t="s">
         <v>95</v>
       </c>
-      <c r="BC8" t="s">
+      <c r="BE8" t="s">
         <v>96</v>
       </c>
-      <c r="BD8" t="s">
+      <c r="BF8" t="s">
         <v>97</v>
       </c>
-      <c r="BE8" t="s">
+      <c r="BG8" t="s">
         <v>98</v>
       </c>
-      <c r="BF8" t="s">
+      <c r="BH8" t="s">
         <v>99</v>
       </c>
-      <c r="BG8" t="s">
+      <c r="BI8" t="s">
         <v>100</v>
       </c>
-      <c r="BH8" t="s">
-        <v>101</v>
-      </c>
-      <c r="BI8" t="s">
-        <v>102</v>
-      </c>
+    </row>
+    <row r="9" spans="1:123" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
     </row>
     <row r="10" spans="1:123" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
+      <c r="A10" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" t="s">
+        <v>225</v>
+      </c>
+      <c r="G10" t="s">
+        <v>226</v>
+      </c>
+      <c r="H10" t="s">
+        <v>227</v>
+      </c>
+      <c r="I10" t="s">
+        <v>228</v>
+      </c>
+      <c r="J10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" t="s">
+        <v>229</v>
+      </c>
+      <c r="M10" t="s">
+        <v>125</v>
+      </c>
+      <c r="N10" t="s">
+        <v>230</v>
+      </c>
+      <c r="O10" t="s">
+        <v>231</v>
+      </c>
+      <c r="P10" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>233</v>
+      </c>
+      <c r="R10" t="s">
+        <v>234</v>
+      </c>
+      <c r="S10" t="s">
+        <v>235</v>
+      </c>
+      <c r="T10" t="s">
+        <v>236</v>
+      </c>
+      <c r="U10" t="s">
+        <v>237</v>
+      </c>
+      <c r="V10" t="s">
+        <v>238</v>
+      </c>
+      <c r="W10" t="s">
+        <v>239</v>
+      </c>
+      <c r="X10" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>244</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>245</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>246</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>247</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>248</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>250</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>252</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>253</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>256</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>257</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>258</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>260</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>261</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>262</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>263</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>264</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>265</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>266</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:123" x14ac:dyDescent="0.25">
+      <c r="AU13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AY2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AT11" sqref="AT11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="27" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="50" width="20" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>229</v>
+      </c>
+      <c r="M2" t="s">
+        <v>125</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="P2" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>233</v>
+      </c>
+      <c r="R2" t="s">
+        <v>234</v>
+      </c>
+      <c r="S2" t="s">
+        <v>235</v>
+      </c>
+      <c r="T2" t="s">
+        <v>236</v>
+      </c>
+      <c r="U2" t="s">
+        <v>237</v>
+      </c>
+      <c r="V2" t="s">
+        <v>238</v>
+      </c>
+      <c r="W2" t="s">
+        <v>239</v>
+      </c>
+      <c r="X2" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>244</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>245</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>246</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>247</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>249</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>252</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>254</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>255</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>257</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>258</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>259</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>260</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>261</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>263</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>264</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>265</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>266</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>